--- a/doc/功能计划.xlsx
+++ b/doc/功能计划.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Study\SCAUZJ\FinalExam\Backend\EduFlex\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D6BA4B-20D9-4731-9005-28DE2E419816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D1BC44-B386-4169-A3FF-FC3E0D6C3CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5736" yWindow="1908" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BUG" sheetId="1" r:id="rId1"/>
@@ -33,8 +33,40 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="2">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="2">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+    <bk>
+      <rc t="1" v="1"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>模块</t>
   </si>
@@ -67,9 +99,6 @@
   </si>
   <si>
     <t>试卷模块</t>
-  </si>
-  <si>
-    <t>组卷 - 题库选择框</t>
   </si>
   <si>
     <t>题目内容 - 增加图片列</t>
@@ -80,6 +109,30 @@
   </si>
   <si>
     <t>查看考生考生记录试卷详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色权限、菜单权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组卷 - 题库选择框 (排除已选题库）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户端</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页失效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -160,6 +213,75 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+  <rv s="0">
+    <v>5</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>5</v>
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="CalcOrigin" t="i"/>
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+  <rel r:id="rId2"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -420,9 +542,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -430,10 +552,12 @@
   <cols>
     <col min="1" max="1" width="19.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="34.33203125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="39.21875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,7 +568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -455,7 +579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -465,44 +589,51 @@
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="114.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -529,7 +660,31 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/doc/功能计划.xlsx
+++ b/doc/功能计划.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Study\SCAUZJ\FinalExam\Backend\EduFlex\doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D1BC44-B386-4169-A3FF-FC3E0D6C3CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="17760" windowHeight="7185" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BUG" sheetId="1" r:id="rId1"/>
@@ -33,40 +27,42 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
-  <metadataTypes count="1">
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="2">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <valueMetadata count="2">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-    <bk>
-      <rc t="1" v="1"/>
-    </bk>
-  </valueMetadata>
-</metadata>
+<file path=xl/cellimages.xml><?xml version="1.0" encoding="utf-8"?>
+<etc:cellImages xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="ID_79A8BE35836B4ACA8E75DEA2CE71DF77"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4690110" y="3707765"/>
+          <a:ext cx="3189605" cy="500380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+</etc:cellImages>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>模块</t>
   </si>
@@ -101,46 +97,56 @@
     <t>试卷模块</t>
   </si>
   <si>
+    <t>组卷 - 题库选择框 (排除已选题库）</t>
+  </si>
+  <si>
+    <t>分页</t>
+  </si>
+  <si>
+    <t>分页失效</t>
+  </si>
+  <si>
+    <t>评论模块</t>
+  </si>
+  <si>
+    <t>父级评论（修改为下拉框）</t>
+  </si>
+  <si>
     <t>题目内容 - 增加图片列</t>
   </si>
   <si>
     <t>考试模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>查看考生考生记录试卷详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>权限管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>角色权限、菜单权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组卷 - 题库选择框 (排除已选题库）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>用户端</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>分页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分页失效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理</t>
+  </si>
+  <si>
+    <t>上传头像 改成 ID存储</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,36 +155,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -186,102 +501,319 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
-  <rv s="0">
-    <v>5</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>5</v>
-    <v>1</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <s t="_localImage">
-    <k n="CalcOrigin" t="i"/>
-    <k n="_rvRel:LocalImageIdentifier" t="i"/>
-  </s>
-</rvStructures>
-</file>
-
-<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
-<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rel r:id="rId1"/>
-  <rel r:id="rId2"/>
-</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -536,28 +1068,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="39.21875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="19.8833333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.3333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="1"/>
+    <col min="4" max="4" width="39.2166666666667" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88333333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -568,7 +1100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -579,7 +1111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -591,60 +1123,67 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="129" customHeight="1" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
     </row>
-    <row r="5" spans="1:5" ht="114.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="114.6" customHeight="1" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1" t="e" vm="2">
-        <v>#VALUE!</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_79A8BE35836B4ACA8E75DEA2CE71DF77",1)</f>
+        <v>=DISPIMG("ID_79A8BE35836B4ACA8E75DEA2CE71DF77",1)</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="23.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="23.2166666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.2166666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.775" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88333333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -655,40 +1194,48 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/功能计划.xlsx
+++ b/doc/功能计划.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28821"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Study\SCAUZJ\FinalExam\Backend\EduFlex\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A3B2AE-6A30-4E07-98BC-5A6DD36165E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF83C65C-9CB5-4860-B4CE-AC9F90B721CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BUG" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="79">
   <si>
     <t>模块</t>
   </si>
@@ -112,18 +112,9 @@
     <t>分页失效</t>
   </si>
   <si>
-    <t>评论模块</t>
-  </si>
-  <si>
-    <t>父级评论（修改为下拉框）</t>
-  </si>
-  <si>
     <t>题目内容 - 增加图片列</t>
   </si>
   <si>
-    <t>考试模块</t>
-  </si>
-  <si>
     <t>查看考生考生记录试卷详情</t>
   </si>
   <si>
@@ -134,9 +125,6 @@
   </si>
   <si>
     <t>用户端</t>
-  </si>
-  <si>
-    <t>用户管理</t>
   </si>
   <si>
     <t>上传头像 改成 ID存储</t>
@@ -148,6 +136,239 @@
   <si>
     <t>上传文件 - 文件名过长问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程评论模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论分页问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页显示课程学习进度
+详情页显示章节与资料学习进度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理端 - 评价管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段问题（用户ID、课程ID）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户端 - 调控模块</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生小明制定了“学习前端”的计划，原定 3 月 11 日至 3 月 14 日每天 12:00-15:00：
+监控：发现 3 月 12 日任务未完成。
+调整：将 3 月 12 日任务拖到 14:00-17:00，系统检测无冲突。
+提醒：3 月 13 日 11:50 收到任务开始提醒。
+日志：记录调整操作，供后续评价使用。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户端 - 课程推荐</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程方向与课程分类合并
+采用主表+对话框的形式展示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大文件上传</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理端 - 学习记录管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理端 - 课程方向/分类</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理端/学生端 - 用户管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理端 - 考试模块</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理端 - 题目模块</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理端 - 文件管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理端 - 学生选课</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生选课与课程管理合并</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理端 - 课程评价</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程评价与课程管理合并</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理端 - 课程评论</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程评论与课程管理合并</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论显示方式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加评论回复</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理端 - 学习进度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习进度导出功能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理端 - 学习计划管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加Calendar视图模式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户端 - 学习计划</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加弹窗显示今日计划，可选择开始和结束</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>视图中增加里程碑（已完成）、任务（当天所有计划）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户端 - 考试模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考试列表问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考试模块</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除考试时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台所有模块</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入功能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户端 - 学生管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生增删改查操作报错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理端 - 教师管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理端 - 学生管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改头像功能(支持默认头像)</t>
+  </si>
+  <si>
+    <t>修改头像功能(支持默认头像)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速查看学生选课列表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速查看教师开课列表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员 - 教师管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格增加列（课程数）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理端 - 作业管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看学生作业详情</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理端 - 考试管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动组卷</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理端 - 学习目标管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加二级页面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改为点击确定后再上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接入AI自动评分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -204,13 +425,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -487,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -535,15 +759,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="114.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -558,42 +785,81 @@
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.77734375" style="1" customWidth="1"/>
     <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
@@ -610,19 +876,22 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
+      <c r="A2" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
+      <c r="A3" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -630,27 +899,283 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
+      <c r="A6" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>